--- a/storage/app/public/template_upload/Format_Upload_Tingkat_Pendidikan.xlsx
+++ b/storage/app/public/template_upload/Format_Upload_Tingkat_Pendidikan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="17775" windowHeight="6165"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -383,13 +383,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>

--- a/storage/app/public/template_upload/Format_Upload_Tingkat_Pendidikan.xlsx
+++ b/storage/app/public/template_upload/Format_Upload_Tingkat_Pendidikan.xlsx
@@ -16,24 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>tidak_tamat_sekolah</t>
   </si>
   <si>
-    <t>tamat_sd</t>
+    <t>tamat_diploma_sederajat</t>
   </si>
   <si>
-    <t>tamat_sma</t>
+    <t>tamat_sd_sederajat</t>
   </si>
   <si>
-    <t>tamat_smp</t>
+    <t>tamat_smp_sederajat</t>
   </si>
   <si>
-    <t>desa_id</t>
-  </si>
-  <si>
-    <t>tamat_diploma_sederajat</t>
+    <t>tamat_sma_sederajat</t>
   </si>
 </sst>
 </file>
@@ -381,199 +378,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>5203090011</v>
-      </c>
-      <c r="B2" s="1">
-        <v>34</v>
-      </c>
-      <c r="C2" s="1">
-        <v>23</v>
-      </c>
-      <c r="D2" s="1">
-        <v>12</v>
-      </c>
-      <c r="E2" s="1">
-        <v>11</v>
-      </c>
-      <c r="F2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>5203090012</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1">
-        <v>54</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>5203090013</v>
-      </c>
-      <c r="B4" s="1">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1">
-        <v>343</v>
-      </c>
-      <c r="D4" s="1">
-        <v>23</v>
-      </c>
-      <c r="E4" s="1">
-        <v>23</v>
-      </c>
-      <c r="F4" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>5203090014</v>
-      </c>
-      <c r="B5" s="1">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5</v>
-      </c>
-      <c r="F5" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>5203090015</v>
-      </c>
-      <c r="B6" s="1">
-        <v>67</v>
-      </c>
-      <c r="C6" s="1">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1">
-        <v>32</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5203090016</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1">
-        <v>23</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7</v>
-      </c>
-      <c r="F7" s="1">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>5203090017</v>
-      </c>
-      <c r="B8" s="1">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <v>23</v>
-      </c>
-      <c r="D8" s="1">
-        <v>23</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4</v>
-      </c>
-      <c r="F8" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>5203090018</v>
-      </c>
-      <c r="B9" s="1">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1">
-        <v>32</v>
-      </c>
-      <c r="E9" s="1">
-        <v>7</v>
-      </c>
-      <c r="F9" s="1">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
